--- a/DOM_Banner/output/dept0713/Marvin J Slepian_2023.xlsx
+++ b/DOM_Banner/output/dept0713/Marvin J Slepian_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P31"/>
+  <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,75 +452,80 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>University Department for Cardiac Surgery, Leipzig Heart Center, Leipzig, Germany.; University of Cincinnati &amp; Cincinnati Childrens Hosptial, Cincinnati, Ohio, USA; Integris Nazih Zuhdi Transplant Institute, Oklahoma City, OK, USA; University of Louisville, Louisville, KY, USA; Boston Children's Hospital, Boston, MA, USA; Department of Cardiology, Henry Ford Hospital, Detroit, MI, USA; Faculty of Medicine, St Vincent's Hospital, University of New South Wales, Sydney, Australia; Montefiore Medical Center, Bronx, NY, USA; Department of Cardiothoracic Surgery, Heidelberg University, Heidelberg, Germany; Newcastle Upon Tyne Hospitals, and Newcastle University, Newcastle upon Tyne, UK; Department of cardiac Surgery, Mayo Clinic, Rochester, MN, USA; Northwell Health, Manhasset, NY, USA; Brigham and Women's Hospital, Boston, MA, USA; CardioVascular Center Im Park, Seestrasse 247, CH-8038 Zürich; Children University Hospital, Zurich, Switzerland; Bryan Heart, Lincoln, NE, USA; Inova Heart and Vascular Institute, Falls Church VA, USA; University of Arizona, Tucson, AZ, USA; Department of Cardiology, Leiden University Medical Center, Leiden, Netherlands; Department of Cardiovascular Medicine, Cleveland Clinic, Cleveland, Ohio, USA; Advanced Heart Program, Banner University Medical Group, Phoenix, AZ, USA; University of California, San Diego, San Diego, CA, USA; Department of Surgery, University of Cincinnati, Cincinnati Ohio, USA; Cardiovascular Division, Padeh-Poriya Medical Center, Bar Ilan University, Israel; Stollery Children‘s Hospital, Edmonton, AB, Canada; Department of Pediatrics, Johns Hopkins University School of Medicine, Baltimore, Maryland, USA; Walden University, Pine Grove, PA, USA; Europe Hospital Brus, UZ Leuven, Belgium; Department of Medicine/Cardiology, Mass General Hospital, Harvard School of Medicine, Boston Massachusetts USA; University of Minnesota, Minneapolis, MN, USA; University of Cincinnati Medical Center, Cincinnati, OH, USA; Department of Surgery, Division of Cardiothoracic Surgery, University of Arizona, Tucson, AZ, USA; Hospital Universitari de Bellvitge, Gava, Spain; University of Utah Health and School of Medicine and Salt Lake VA Medical Center, Salt Lake City, Utah, USA; Department of Pediatrics, Washington University in St. Louis, USA; Medstar Washington Hospital, Reston, VA, USA; Cleveland Clinic Lerner College of Medicine, Cleveland, OH, USA; Deutsches Herzzentrum Berlin, Germany; Consultant in Congenital Heart Surgery, Adult and Paediatric Congenital Heart Unit Freeman Hospital, Newcastle Upon Tyne, UK; University Department for Cardiac Surgery, Leipzig Heart Center, Leipzg, Germany; Department of Pediatrics, Providence Heart Institute, Portland, Oregon, USA; University of Kentucky, Lexington, KY, USA; Division of Cardiology, Baylor Scott &amp; White Health, Round Rock Texas USA; Integris Baptist Medical Center, Oklahoma City, OK, USA; University of Minnesota, Minneapolis, MN, USA; Allegheny General Hospital, Pittsburgh, PA, USA; King Faisal Specialist Hospital &amp; Research Center, Riyadh; Department of Cardiology, University of Chicago, Illinois, USA; Division of Cardiovascular Surgery, Advanced Heart Failure Program, University of Texas Medical Center, Houston, Texas, USA; Department of Cardiac Surgery, Sheba Medical Center, Ramat Gan, Israel; Department of Cardiac Surgery, New Yok University Medical Center, New York, NY, USA; Department of Thoracic and Cardiovascular Surgery, Sorbonne Université, AP-HP, Pitié-Salpêtrière Hospital, Paris, France; University Hospital Birmingham NHS Foundation Trust, Birmingham, UK; Bologna University, Cardiothorac, Transplant and Vasc Surg Dept, Bologna, Italy; Department of Cardiac Surgery, Institute for Clinical and Experimental Medicine, Prague, Czeck Republic; Department of Medicine, MedStar Washington Hospital Center, Georgetown University, Wahington DC USA; Dept. of Cardiac Surgery, Institute for Clinical and Experimental Medicine, Prague, Czech Republic; UAB, Birmingham, AL, USA; Cardiology Division, Montefiore Medical Center, Bronx, NY, USA; Mount Sinai Medical Center, New York, NY, USA; Division of Cardiology, Boston Children's Hospital/Harvard School of Medicine, Boston, Massachusetts, USA; German Heart Centre, Berlin, Germany; Department of Cardiology, Montefiore Medical Center, Bronx, NY, USA; St Vincent's Private Hospital, Sydney, Australia; Duke University Medical Center, Raleigh, NC, USA; United Hospital/Allina Health, St Paul, Minnesota, USA; Hospital Clinic, Barcelona, Spain, USA; University of Chicago Medical Center, Chicago, IL, USA; Mayo Clinic, Rochester, MN, USA; Department of Surgery, Universitats- Herzzentrum, Freiburg Germany; Medical University of Vienna, Vienna, Austria; Dept. of Cardiothoracic, Transplantation and Vascular Surgery, Hannover Medical School, Hannover, Germany; Department of Surgery, University of Nebraska Medical Center, Omha, Nebraska, USA; Department of Cardiac Surgery, Florida Hospital, Orlando, FL, USA; Department of Cardiovascular and Thoracic Surgery, University of Louisville, Kentucky, USA; Cardiac Surgery department, Minneapolis Heart Institute, Minneapolis, MN, USA; Department of Cardiac Surgery, Columbia University Medical Center, New York, NY, USA; Department of Medicine/Cardiology, Medical University of South Carolina, Charleston, South Carolina, USA; Stanford University Medical Center, Stanford, CA, USA; Massachusetts General Hospital, Harvard Medical School, Boston, MA, USA; Department of Cardiology, Columbia University, New York, NY, USA; Department of Medicine, University of Cincinnati, Cincinnati, Ohio, USA; Department of Cardiac Surgery, Medical University Vienna, Vienna, Austria; Massachusetts General Hospital, Boston, Harvard School of Medicine, Boston, MA, USA</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4378191996</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>The 2023 International Society for Heart and Lung Transplantation Guidelines for Mechanical Circulatory Support: A 10- Year Update</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2023-07-01</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>The Journal of Heart and Lung Transplantation</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.healun.2022.12.004</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>21</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/37245143</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.healun.2022.12.004</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -529,75 +539,80 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Boston University, Boston, Massachusetts, United States of America; University of Arizona, Tucson, Arizona, United States of America; University of Arizona, Tucson, Arizona, United States of America; University of Texas at Arlington, Arlington Texas, United States of America; University of Arizona, Tucson, Arizona, United States of America; University of Arizona, Tucson, Arizona, United States of America; University of Arizona, Tucson, Arizona, United States of America</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4377115728</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Diverse patients’ attitudes towards Artificial Intelligence (AI) in diagnosis</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2023-05-19</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>PLOS digital health</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Public Library of Science</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1371/journal.pdig.0000237</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/37205713</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1371/journal.pdig.0000237</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -611,75 +626,80 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>Biofluids Research Group, Department of Biomedical Engineering, Stony Brook University, Stony Brook, NY 11794, USA; Biofluids Research Group, Department of Biomedical Engineering, Stony Brook University, Stony Brook, NY 11794, USA; Division of Cardiovascular Medicine, Department of Medicine, Stony Brook University, Stony Brook, NY 11794, USA; Department of Medicine, Sarver Heart Center, University of Arizona, Tucson, AZ 85724, USA; Biofluids Research Group, Department of Biomedical Engineering, Stony Brook University, Stony Brook, NY 11794, USA</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4319015592</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Mild Paravalvular Leak May Pose an Increased Thrombogenic Risk in Transcatheter Aortic Valve Replacement (TAVR) Patients-Insights from Patient Specific In Vitro and In Silico Studies</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2023-02-01</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Bioengineering</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>Multidisciplinary Digital Publishing Institute</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>https://doi.org/10.3390/bioengineering10020188</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36829682</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>https://doi.org/10.3390/bioengineering10020188</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -693,75 +713,80 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>Department of Medicine University of Arizona  Tucson Arizona USA; ABIOMED Inc.  Danvers Massachusetts USA; ABIOMED Inc.  Danvers Massachusetts USA; ABIOMED Inc.  Danvers Massachusetts USA; Department of Medicine University of Arizona  Tucson Arizona USA</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4315700374</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>Sodium bicarbonate alters protein stability and blood coagulability in a simulated Impella purge gap model</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2023-02-09</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Artificial Organs</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>Wiley-Blackwell</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>https://doi.org/10.1111/aor.14497</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36633107</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>https://doi.org/10.1111/aor.14497</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -775,75 +800,80 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>Sarver Heart Center, Departments of Medicine and Biomedical Engineering, University of Arizona, 1501 N Campbell Ave, Building 201E, Room 6139, Tucson, AZ 85724, USA; Sarver Heart Center, Departments of Medicine and Biomedical Engineering, University of Arizona, 1501 N Campbell Ave, Building 201E, Room 6139, Tucson, AZ 85724, USA; Sarver Heart Center, Departments of Medicine and Biomedical Engineering, University of Arizona, 1501 N Campbell Ave, Building 201E, Room 6139, Tucson, AZ 85724, USA; Department of Biomedical Engineering, Stony Brook University, Stony Brook, NY 11794, USA; Department of Biomedical Engineering, Stony Brook University, Stony Brook, NY 11794, USA; Boston Children’s Hospital, Harvard Medical School, Boston, MA 02115, USA; Beth Israel Deaconess Medical Center, Boston, MA 02215, USA; Boston Children’s Hospital, Harvard Medical School, Boston, MA 02115, USA; Sarver Heart Center, Departments of Medicine and Biomedical Engineering, University of Arizona, 1501 N Campbell Ave, Building 201E, Room 6139, Tucson, AZ 85724, USA</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4366088439</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>Shear-Mediated Platelet Microparticles Demonstrate Phenotypic Heterogeneity as to Morphology, Receptor Distribution, and Hemostatic Function</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2023-04-17</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>International Journal of Molecular Sciences</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>Multidisciplinary Digital Publishing Institute</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>https://doi.org/10.3390/ijms24087386</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/37108551</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>https://doi.org/10.3390/ijms24087386</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -857,75 +887,80 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t xml:space="preserve"> University of Arizona;;  University of Arizona;;  University of Arizona;;  Stony Brook University;;  Stony Brook University;; Boston Children’s Hospital, Harvard Medical School, Boston, MA, USA; Beth Israel Deaconess Medical Center, Boston, MA, USA; Boston Children’s Hospital, Harvard Medical School, Boston, MA, USA; Department of Biomedical Engineering, Stony Brook University, Stony Brook, NY, USA; Department of Medicine and Biomedical Engineering, Sarver Heart Center, University of Arizona, Tucson, AZ, USA</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4319460003</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>Shear-Mediated Platelet Microparticles Demonstrate Phenotypic Heterogeneity as to Morphology, Receptor Distribution, and Hemostatic Function</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2023-02-08</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>bioRxiv (Cold Spring Harbor Laboratory)</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>Cold Spring Harbor Laboratory</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>https://doi.org/10.1101/2023.02.08.527675</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36798322</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>https://doi.org/10.1101/2023.02.08.527675</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -939,75 +974,80 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>Department of Medicine and Biomedical Engineering, University of Arizona, Tucson, Arizona, United States; Department of Medicine and Biomedical Engineering, University of Arizona, Tucson, Arizona, United States; Department of Medicine and Biomedical Engineering, University of Arizona, Tucson, Arizona, United States; Department of Biomedical Engineering, Stony Brook University, Stony Brook, New York, United States; Department of Biomedical Engineering, Stony Brook University, Stony Brook, New York, United States; Boston Children’s Hospital, Harvard Medical School, Boston, Massachusetts, United States; Boston Children’s Hospital, Harvard Medical School, Boston, Massachusetts, United States; Department of Medicine and Biomedical Engineering, University of Arizona, Tucson, Arizona, United States</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4380319547</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>CARD12: Shear Stress Renders Redistribution of P2Y12 and PAR-1 Receptors from Platelets to Microparticles: A Cue to Limited Effectiveness of Antiplatelet Therapy in MCS</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>2023-06-01</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>ASAIO Journal</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>https://doi.org/10.1097/01.mat.0000943572.05432.ff</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>https://doi.org/10.1097/01.mat.0000943572.05432.ff</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1021,75 +1061,80 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>Medicine, University of Arizona, Tucson, Arizona, United States; Chemistry, University of Arizona, Tucson, Arizona, United States; Medicine, University of Arizona, Tucson, Arizona, United States; Chemistry, University of Arizona, Tucson, Arizona, United States; Medicine, University of Arizona, Tucson, Arizona, United States</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4380319712</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>P74: Plasma Osmolarity as a Determinant of Platelet Morphology and Function in Heart Failure</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>2023-06-01</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>ASAIO Journal</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>https://doi.org/10.1097/01.mat.0000944116.44107.58</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>https://doi.org/10.1097/01.mat.0000944116.44107.58</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1103,75 +1148,80 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>Department of Biomedical Engineering, College of Engineering, University of Arizona, Tucson, Arizona; Department of Chemistry and Biochemistry, University of Arizona, Tucson, Arizona; Arizona Center for Accelerated Biomedical Innovation, University of Arizona, Tucson, Arizona; Department of Chemistry and Biochemistry, University of Arizona, Tucson, Arizona; Department of Biomedical Engineering, College of Engineering, University of Arizona, Tucson, Arizona</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4380319716</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>P82: Platelet Exogenous Lipid Uptake: A Step Toward Lipid Membrane Mechanoceuticals</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>2023-06-01</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>ASAIO Journal</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>https://doi.org/10.1097/01.mat.0000944148.20781.2b</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>https://doi.org/10.1097/01.mat.0000944148.20781.2b</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1185,75 +1235,80 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>University of Arizona, Tucson, Arizona, United States; University of Arizona, Tucson, Arizona, United States; University of Arizona, Tucson, Arizona, United States; University of Arizona, Tucson, Arizona, United States</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4380319754</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>CARD29: Sodium Bicarbonate as an Adjunctive Local Anti-Thrombotic Agent for Cardiovascular Therapeutic Devices</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>2023-06-01</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>ASAIO Journal</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>https://doi.org/10.1097/01.mat.0000943640.84778.0f</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="P11" t="inlineStr">
         <is>
           <t>https://doi.org/10.1097/01.mat.0000943640.84778.0f</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1267,75 +1322,80 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>University of Arizona, Tucson, Arizona, United States; Stony Brook University, Stony Brook, New York, United States; Stony Brook University, Stony Brook, New York, United States; University of Arizona, Tucson, Arizona, United States; Stony Brook University, Stony Brook, New York, United States; University of Arizona, Tucson, Arizona, United States</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4380319825</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>CARD11: Polymeric Endoluminal Paving for Prevention of Paravalvular Leak in Transcatheter Aortic Valve Replacement</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>2023-06-01</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>ASAIO Journal</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>https://doi.org/10.1097/01.mat.0000943568.04436.a2</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="P12" t="inlineStr">
         <is>
           <t>https://doi.org/10.1097/01.mat.0000943568.04436.a2</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
+      <c r="Q12" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1349,75 +1409,80 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>Biomedical Engineering, University of Arizona, Tucson, Arizona, United States; Material Science and Engineering, University of Arizona, Tucson, Arizona, United States; Mining and Geological Engineering, University of Arizona, Tucson, Arizona, United States; Biomedical Engineering, Stony Brook University, Stony Brook, New York, United States; Biomedical Engineering, Stony Brook University, Stony Brook, New York, United States; Biomedical Engineering, University of Arizona, Tucson, Arizona, United States</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4380319912</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>P29: Snore Vibro-acoustic Platelet Activation: A Thrombotic Risk Factor in Obstructive Sleep Apnea</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>2023-06-01</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>ASAIO Journal</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>https://doi.org/10.1097/01.mat.0000943940.96228.c0</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="N13" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="O13" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr">
+      <c r="P13" t="inlineStr">
         <is>
           <t>https://doi.org/10.1097/01.mat.0000943940.96228.c0</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
+      <c r="Q13" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1431,75 +1496,80 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>College of Medicine, University of Arizona, Tucson, Arizona, United States; College of Medicine, University of Arizona, Tucson, Arizona, United States; College of Medicine, University of Arizona, Tucson, Arizona, United States; College of Medicine, University of Arizona, Tucson, Arizona, United States; BME, University of Arizona, Tucson, Arizona, United States; BME, University of Arizona, Tucson, Arizona, United States</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4380319969</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>P28: Analysis of Surface Electromyography (sEMG) Signals for Motion Signatures in Strength Training Exercises via Stretchable Wearable Electronic Sensors</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>2023-06-01</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>ASAIO Journal</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>https://doi.org/10.1097/01.mat.0000943936.75907.d7</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="N14" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="O14" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr">
+      <c r="P14" t="inlineStr">
         <is>
           <t>https://doi.org/10.1097/01.mat.0000943936.75907.d7</t>
         </is>
       </c>
-      <c r="P14" t="inlineStr">
+      <c r="Q14" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1513,75 +1583,80 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>College of Science, University of Arizona, Tucson, Arizona, United States; College of Engineering, University of Arizona, Tucson, Arizona, United States; College of Science, University of Arizona, Tucson, Arizona, United States; College of Science, University of Arizona, Tucson, Arizona, United States; College of Science, University of Arizona, Tucson, Arizona, United States; College of Science, University of Arizona, Tucson, Arizona, United States; College of Engineering, University of Arizona, Tucson, Arizona, United States; College of Engineering, University of Arizona, Tucson, Arizona, United States; College of Engineering, University of Arizona, Tucson, Arizona, United States; College of Engineering, University of Arizona, Tucson, Arizona, United States; College of Engineering, University of Arizona, Tucson, Arizona, United States; College of Engineering, University of Arizona, Tucson, Arizona, United States; College of Engineering, University of Arizona, Tucson, Arizona, United States</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4380320011</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>RENAL13: Python Computational Methods Advance Video Motion Capture for Telehealth and In-Person Diagnostic Accuracy</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>2023-06-01</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>ASAIO Journal</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>https://doi.org/10.1097/01.mat.0000943820.86838.6d</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="L15" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="M15" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="N15" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
+      <c r="O15" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr">
+      <c r="P15" t="inlineStr">
         <is>
           <t>https://doi.org/10.1097/01.mat.0000943820.86838.6d</t>
         </is>
       </c>
-      <c r="P15" t="inlineStr">
+      <c r="Q15" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1595,75 +1670,80 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>Medicne and Biomedical Engineering, University of Arizona, Tucson, Arizona, United States; Engineering, University of Arizona, Tucson, Arizona, United States; Medicine- Nephrology, University of Arizona, Tucson, Arizona, United States; Medicine and Biomedical Engieering, University of Arizona, Tucson, Arizona, United States</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4380320018</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>RENAL5: ADVANCE Kidney Health: Student, Faculty and University Engagement to Advance the Renal Workforce and Drive Innovation for the Future</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>2023-06-01</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>ASAIO Journal</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>https://doi.org/10.1097/01.mat.0000943788.42871.f6</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
+      <c r="L16" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="M16" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr">
+      <c r="N16" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N16" t="inlineStr">
+      <c r="O16" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O16" t="inlineStr">
+      <c r="P16" t="inlineStr">
         <is>
           <t>https://doi.org/10.1097/01.mat.0000943788.42871.f6</t>
         </is>
       </c>
-      <c r="P16" t="inlineStr">
+      <c r="Q16" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1677,75 +1757,80 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>Biomedical Engineering, University of Arizona, Phoenix, Arizona, United States; Electrical and Computer Engineering, University of Arizona, Tucson, Arizona, United States; Biomedical Engineering, University of Arizona, Phoenix, Arizona, United States; Electrical and Computer Engineering, University of Arizona, Tucson, Arizona, United States; Biomedical Engineering, University of Arizona, Phoenix, Arizona, United States; Biomedical Engineering, University of Arizona, Phoenix, Arizona, United States</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4380320073</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>RENAL14: Colorimetric Detection App as a Component of a Blood-Free Test Kit for Home Detection of Inflammation Markers</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>2023-06-01</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>ASAIO Journal</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>https://doi.org/10.1097/01.mat.0000943824.87668.d1</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr">
+      <c r="L17" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="M17" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M17" t="inlineStr">
+      <c r="N17" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N17" t="inlineStr">
+      <c r="O17" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O17" t="inlineStr">
+      <c r="P17" t="inlineStr">
         <is>
           <t>https://doi.org/10.1097/01.mat.0000943824.87668.d1</t>
         </is>
       </c>
-      <c r="P17" t="inlineStr">
+      <c r="Q17" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1759,75 +1844,80 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>Department of Physiology, College of Medicine, University of Arizona, Tucson, Arizona, United States; Department of Physiology, College of Medicine, University of Arizona, Tucson, Arizona, United States; Department of Physiology, College of Medicine, University of Arizona, Tucson, Arizona, United States; Department of Medicine, Sarver Heart Center, Univeristy of Arizona, Tucson, Arizona, United States; Department of Physiology, College of Medicine, University of Arizona, Tucson, Arizona, United States; Department of Physiology, College of Medicine, University of Arizona, Tucson, Arizona, United States; Department of Biomedical Engineering, College of Engineering, University of Arizona, Tucson, Arizona, United States; Department of Physiology, College of Medicine, University of Arizona, Tucson, Arizona, United States; University of Nebraska Medical Center, Omaha, Nebraska, United States; Department of Medicine, Sarver Heart Center, Univeristy of Arizona, Tucson, Arizona, United States</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4380320134</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>P30: Remote and In-Clinic Teletracking and Analysis for Enhanced Rheumatologic Examination</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>2023-06-01</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>ASAIO Journal</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>https://doi.org/10.1097/01.mat.0000943944.66548.ac</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr">
+      <c r="K18" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr">
+      <c r="L18" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="M18" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M18" t="inlineStr">
+      <c r="N18" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N18" t="inlineStr">
+      <c r="O18" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O18" t="inlineStr">
+      <c r="P18" t="inlineStr">
         <is>
           <t>https://doi.org/10.1097/01.mat.0000943944.66548.ac</t>
         </is>
       </c>
-      <c r="P18" t="inlineStr">
+      <c r="Q18" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1841,75 +1931,80 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>Biomedical Engineering, Univeristy of Arizona, Tucson, Arizona, United States; Biomedical Engineering, Univeristy of Arizona, Tucson, Arizona, United States; Optical Engineering, University of Arizona, Tucson, Arizona, United States; Electrical Engineering, University of Arizona, Tucson, Arizona, United States; Electrical Engineering, University of Arizona, Tucson, Arizona, United States; Computer Science, University of Arizona, Tucson, Arizona, United States; Chemical Engineering, University of Arizona, Tucson, Arizona, United States; Biomedical Engineering, Univeristy of Arizona, Tucson, Arizona, United States; Biomedical Engineering, Univeristy of Arizona, Tucson, Arizona, United States; Biomedical Engineering, Univeristy of Arizona, Tucson, Arizona, United States; Biomedical Engineering, Univeristy of Arizona, Tucson, Arizona, United States; Biomedical Engineering, Univeristy of Arizona, Tucson, Arizona, United States; Biomedical Engineering, Univeristy of Arizona, Tucson, Arizona, United States; Computer Science, University of Arizona, Tucson, Arizona, United States; Computer Science, University of Arizona, Tucson, Arizona, United States; Computer Science, University of Arizona, Tucson, Arizona, United States; Sarver Heart Center, Tucson, Arizona, United States</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4380320135</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>RENAL2: Wired Room: Digital Sound, Image and Motion Analysis for Enhanced Medical Diagnostics from A Patient Encounter</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>2023-06-01</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>ASAIO Journal</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>https://doi.org/10.1097/01.mat.0000943776.84758.a0</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr">
+      <c r="L19" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L19" t="inlineStr">
+      <c r="M19" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M19" t="inlineStr">
+      <c r="N19" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N19" t="inlineStr">
+      <c r="O19" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O19" t="inlineStr">
+      <c r="P19" t="inlineStr">
         <is>
           <t>https://doi.org/10.1097/01.mat.0000943776.84758.a0</t>
         </is>
       </c>
-      <c r="P19" t="inlineStr">
+      <c r="Q19" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1923,75 +2018,80 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>Nephrology, Banner University of Arizona, TUCSON, Arizona, United States; Nephrology, Banner University of Arizona, Tucson, Arizona, United States; Cardiology, Banner University of Arizona, TUCSON, Arizona, United States</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4380320155</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>RENAL7: Unmet Needs In Nephrology: Survey Results to Drive Innovation</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>2023-06-01</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>ASAIO Journal</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>https://doi.org/10.1097/01.mat.0000943796.93114.88</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr">
+      <c r="K20" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr">
+      <c r="L20" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L20" t="inlineStr">
+      <c r="M20" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M20" t="inlineStr">
+      <c r="N20" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N20" t="inlineStr">
+      <c r="O20" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O20" t="inlineStr">
+      <c r="P20" t="inlineStr">
         <is>
           <t>https://doi.org/10.1097/01.mat.0000943796.93114.88</t>
         </is>
       </c>
-      <c r="P20" t="inlineStr">
+      <c r="Q20" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2005,75 +2105,80 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>Medicne and Biomedical Engineering, University of Arizona, Tucson, Arizona, United States; BME, StonyBrook University, Stonybrook, New York, United States; BME, StonyBrook University, Stonybrook, New York, United States; BME, StonyBrook University, Stonybrook, New York, United States; BME, StonyBrook University, Stonybrook, New York, United States</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4380320223</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>BIO3: Advancement of a Novel Polymeric Transcatheter Aortic Valve as an Alternative to Tissue-based Valves</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>2023-06-01</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>ASAIO Journal</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>https://doi.org/10.1097/01.mat.0000943324.32217.a6</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr">
+      <c r="K21" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr">
+      <c r="L21" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L21" t="inlineStr">
+      <c r="M21" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M21" t="inlineStr">
+      <c r="N21" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N21" t="inlineStr">
+      <c r="O21" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O21" t="inlineStr">
+      <c r="P21" t="inlineStr">
         <is>
           <t>https://doi.org/10.1097/01.mat.0000943324.32217.a6</t>
         </is>
       </c>
-      <c r="P21" t="inlineStr">
+      <c r="Q21" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2087,75 +2192,80 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
+          <t>University of Arizona, Tucson, Arizona, United States; University of Arizona, Tucson, Arizona, United States; University of Arizona, Tucson, Arizona, United States; University of Arizona, Tucson, Arizona, United States; University of Arizona, Tucson, Arizona, United States</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4380320261</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>P33: “Digital Dance”: Analyzing and Quantifying Signatures of a Demi Plié via Stretchable Electronic Wearable Sensors for Dance Movement Therapy</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>2023-06-01</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>ASAIO Journal</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>https://doi.org/10.1097/01.mat.0000943956.41982.f9</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
+      <c r="J22" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J22" t="inlineStr">
+      <c r="K22" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr">
+      <c r="L22" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L22" t="inlineStr">
+      <c r="M22" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M22" t="inlineStr">
+      <c r="N22" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N22" t="inlineStr">
+      <c r="O22" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O22" t="inlineStr">
+      <c r="P22" t="inlineStr">
         <is>
           <t>https://doi.org/10.1097/01.mat.0000943956.41982.f9</t>
         </is>
       </c>
-      <c r="P22" t="inlineStr">
+      <c r="Q22" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2169,75 +2279,80 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
+          <t>University of Arizona, Tucson, Arizona, United States; University of Arizona, Tucson, Arizona, United States; University of Arizona, Tucson, Arizona, United States; University of Arizona, Tucson, Arizona, United States</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4380320279</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>P39: Generational Status as a Factor in Medical Device Information and Data Exchange</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>2023-06-01</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>ASAIO Journal</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>https://doi.org/10.1097/01.mat.0000943980.82438.2c</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J23" t="inlineStr">
+      <c r="K23" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr">
+      <c r="L23" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L23" t="inlineStr">
+      <c r="M23" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M23" t="inlineStr">
+      <c r="N23" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N23" t="inlineStr">
+      <c r="O23" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O23" t="inlineStr">
+      <c r="P23" t="inlineStr">
         <is>
           <t>https://doi.org/10.1097/01.mat.0000943980.82438.2c</t>
         </is>
       </c>
-      <c r="P23" t="inlineStr">
+      <c r="Q23" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2251,75 +2366,80 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
+          <t>Department of Biomedical Engineering, University of Arizona, Tucson, Arizona, United States; Department of Biomedical Engineering, University of Arizona, Tucson, Arizona, United States; Department of Electrical and Computer Engineering, University of Arizona, Tucson, Arizona, United States; Department of Mechanical Engineering, University of Arizona, Tucson, Arizona, United States; Department of Systems Engineering, University of Arizona, Tucson, Arizona, United States; Department of Medicine and Biomedical Engineering, University of Arizona, Tucson, Arizona, United States</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4380320284</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>RENAL9: REDIEM 2.0: Renal Extremity Device to Measure Impedance, Edema, Movement</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>2023-06-01</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>ASAIO Journal</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>https://doi.org/10.1097/01.mat.0000943804.30387.09</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
+      <c r="J24" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J24" t="inlineStr">
+      <c r="K24" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K24" t="inlineStr">
+      <c r="L24" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L24" t="inlineStr">
+      <c r="M24" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M24" t="inlineStr">
+      <c r="N24" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N24" t="inlineStr">
+      <c r="O24" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O24" t="inlineStr">
+      <c r="P24" t="inlineStr">
         <is>
           <t>https://doi.org/10.1097/01.mat.0000943804.30387.09</t>
         </is>
       </c>
-      <c r="P24" t="inlineStr">
+      <c r="Q24" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2333,75 +2453,80 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
+          <t xml:space="preserve">; </t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4380367737</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>P38: Dual Field Pulsed Electromagnetic Therapy: A Non-Opioid Means of Reducing Pain in Diabetic Peripheral Neuropathy - Report of the RELIEF Trial</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>2023-06-01</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>ASAIO Journal</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>https://doi.org/10.1097/01.mat.0000943976.11289.02</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr">
+      <c r="J25" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J25" t="inlineStr">
+      <c r="K25" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K25" t="inlineStr">
+      <c r="L25" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L25" t="inlineStr">
+      <c r="M25" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M25" t="inlineStr">
+      <c r="N25" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N25" t="inlineStr">
+      <c r="O25" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O25" t="inlineStr">
+      <c r="P25" t="inlineStr">
         <is>
           <t>https://doi.org/10.1097/01.mat.0000943976.11289.02</t>
         </is>
       </c>
-      <c r="P25" t="inlineStr">
+      <c r="Q25" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2415,75 +2540,80 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
+          <t>Biomedical Engineering, Politechnico di Milano, Milan, Italy; Medicine and Biomedical Engineering, University of Arizona, Tucson, Arizona, United States; Biomedical Engineering, Politechnico di Milano, Milan, Italy; Biomedical Engineering, Politechnico di Milano, Milan, Italy; Biomedical Engineering, Politechnico di Milano, Milan, Italy; Medicine and Biomedical Engineering, University of Arizona, Tucson, Arizona, United States</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4380368804</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>P83: Circulating Platelet-Derived Microparticles Modulate Platelet Adhesion Under Flow: Modeling Primary Thrombus Formation in a Microfluidic System</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>2023-06-01</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>ASAIO Journal</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>https://doi.org/10.1097/01.mat.0000944152.62717.92</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr">
+      <c r="J26" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J26" t="inlineStr">
+      <c r="K26" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K26" t="inlineStr">
+      <c r="L26" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L26" t="inlineStr">
+      <c r="M26" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M26" t="inlineStr">
+      <c r="N26" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N26" t="inlineStr">
+      <c r="O26" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O26" t="inlineStr">
+      <c r="P26" t="inlineStr">
         <is>
           <t>https://doi.org/10.1097/01.mat.0000944152.62717.92</t>
         </is>
       </c>
-      <c r="P26" t="inlineStr">
+      <c r="Q26" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2497,75 +2627,80 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
+          <t>Sarver Heart Center, University of Arizona, Tucson, USA; Arizona Center for Accelerated Biomedical Innovation, University of Arizona, Tucson, USA; Sarver Heart Center, University of Arizona, Tucson, USA; Arizona Center for Accelerated Biomedical Innovation, University of Arizona, Tucson, USA; ABIOMED, Inc., Danvers, USA; Department of Surgery, Boston Children’s Hospital, Harvard Medical School, Boston, USA; Department of Chemistry and Biochemistry, University of Arizona, Tucson, USA; ABIOMED, Inc., Danvers, USA; Sarver Heart Center, University of Arizona, 1501 N Campbell Ave, Tucson, AZ, 85724, USA</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4383872819</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t>Sodium bicarbonate as a local adjunctive agent for limiting platelet activation, aggregation, and adhesion within cardiovascular therapeutic devices</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>2023-07-11</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>Journal of Thrombosis and Thrombolysis</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>Springer Science+Business Media</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>https://doi.org/10.1007/s11239-023-02852-4</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I27" t="inlineStr">
+      <c r="J27" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J27" t="inlineStr">
+      <c r="K27" t="inlineStr">
         <is>
           <t>hybrid</t>
         </is>
       </c>
-      <c r="K27" t="inlineStr">
+      <c r="L27" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L27" t="inlineStr">
+      <c r="M27" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M27" t="inlineStr">
+      <c r="N27" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N27" t="inlineStr">
+      <c r="O27" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/37432612</t>
         </is>
       </c>
-      <c r="O27" t="inlineStr">
+      <c r="P27" t="inlineStr">
         <is>
           <t>https://doi.org/10.1007/s11239-023-02852-4</t>
         </is>
       </c>
-      <c r="P27" t="inlineStr">
+      <c r="Q27" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2579,75 +2714,80 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
+          <t>Regenesis Biomedical Inc., Scottsdale, AZ, USA; Regenesis Biomedical Inc., Scottsdale, AZ, USA; Sarver Heart Center, Departments of Medicine and Biomedical Engineering, The University of Arizona, Tucson, AZ, USA</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4385610918</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>Assessing the Effects of Pulsed Electromagnetic Therapy on Painful Diabetic Distal Symmetric Peripheral Neuropathy: A Double-Blind Randomized Controlled Trial</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>2023-08-04</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>Journal of Diabetes Science and Technology</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>SAGE Publishing</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>https://doi.org/10.1177/19322968231190413</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>cc-by-nc</t>
         </is>
       </c>
-      <c r="I28" t="inlineStr">
+      <c r="J28" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J28" t="inlineStr">
+      <c r="K28" t="inlineStr">
         <is>
           <t>hybrid</t>
         </is>
       </c>
-      <c r="K28" t="inlineStr">
+      <c r="L28" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L28" t="inlineStr">
+      <c r="M28" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M28" t="inlineStr">
+      <c r="N28" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N28" t="inlineStr">
+      <c r="O28" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/37542366</t>
         </is>
       </c>
-      <c r="O28" t="inlineStr">
+      <c r="P28" t="inlineStr">
         <is>
           <t>https://doi.org/10.1177/19322968231190413</t>
         </is>
       </c>
-      <c r="P28" t="inlineStr">
+      <c r="Q28" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2661,76 +2801,81 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4386794233</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t>In Silico Fatigue Optimization of TAVR Stent Designs with Physiological
   Motion in a Beating Heart Model</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>2023-09-13</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>arXiv (Cornell University)</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>Cornell University</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>https://arxiv.org/abs/2309.07253</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I29" t="inlineStr">
+      <c r="J29" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J29" t="inlineStr">
+      <c r="K29" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K29" t="inlineStr">
+      <c r="L29" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L29" t="inlineStr">
+      <c r="M29" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M29" t="inlineStr">
+      <c r="N29" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N29" t="inlineStr">
+      <c r="O29" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O29" t="inlineStr">
+      <c r="P29" t="inlineStr">
         <is>
           <t>https://doi.org/10.48550/arxiv.2309.07253</t>
         </is>
       </c>
-      <c r="P29" t="inlineStr">
+      <c r="Q29" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2744,75 +2889,80 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
+          <t>Dept of Medicine, Univ of Arizona, Tucson, AZ; Dept of Medicine, Univ of Arizona, Tucson, AZ; Brigham and Women's Hosp, Harvard Med Sch, Boston, MA; Dept of Medicine, Univ of Arizona, Tucson, AZ</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4387621104</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="D30" t="inlineStr">
         <is>
           <t>Abstract P1172: Shear-mediated Remodeling Of Platelet Surface Glycosylation: How Can Platelets Trim Their Sugar Coats?</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>2023-08-04</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>Circulation Research</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>https://doi.org/10.1161/res.133.suppl_1.p1172</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I30" t="inlineStr">
+      <c r="J30" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J30" t="inlineStr">
+      <c r="K30" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K30" t="inlineStr">
+      <c r="L30" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L30" t="inlineStr">
+      <c r="M30" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M30" t="inlineStr">
+      <c r="N30" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N30" t="inlineStr">
+      <c r="O30" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O30" t="inlineStr">
+      <c r="P30" t="inlineStr">
         <is>
           <t>https://doi.org/10.1161/res.133.suppl_1.p1172</t>
         </is>
       </c>
-      <c r="P30" t="inlineStr">
+      <c r="Q30" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2826,75 +2976,80 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
+          <t>Arizona Center for Accelerated Biomedical Innovation, University of Arizona, Tucson, AZ 85724, USA; Department of Biomedical Engineering, University of Arizona, Tucson, AZ 85724, USA; Arizona Center for Accelerated Biomedical Innovation, University of Arizona, Tucson, AZ 85724, USA; Department of Medicine, University of Arizona, Tucson, AZ 85724, USA; Department of Medicine, University of Arizona, Tucson, AZ 85724, USA; Arizona Center for Accelerated Biomedical Innovation, University of Arizona, Tucson, AZ 85724, USA; Department of Mining &amp; Geological Engineering, University of Arizona, Tucson, AZ 85724, USA; Arizona Center for Accelerated Biomedical Innovation, University of Arizona, Tucson, AZ 85724, USA; Department of Materials Science &amp; Engineering, University of Arizona, Tucson, AZ 85724, USA; Department of Biomedical Engineering, Stony Brook University, Stony Brook, NY 11794, USA; Department of Biomedical Engineering, Stony Brook University, Stony Brook, NY 11794, USA; Arizona Center for Accelerated Biomedical Innovation, University of Arizona, Tucson, AZ 85724, USA; Department of Medicine, University of Arizona, Tucson, AZ 85724, USA; Health Sciences Center for Sleep and Circadian Sciences, University of Arizona, Tucson, AZ 85724, USA; Arizona Center for Accelerated Biomedical Innovation, University of Arizona, Tucson, AZ 85724, USA; Department of Biomedical Engineering, Stony Brook University, Stony Brook, NY 11794, USA; Department of Biomedical Engineering, University of Arizona, Tucson, AZ 85724, USA; Department of Medicine, University of Arizona, Tucson, AZ 85724, USA</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4389626846</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="D31" t="inlineStr">
         <is>
           <t>Vibro-Acoustic Platelet Activation: An Additive Mechanism of Prothrombosis with Applicability to Snoring and Obstructive Sleep Apnea</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>2023-12-12</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>Bioengineering</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>Multidisciplinary Digital Publishing Institute</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>https://doi.org/10.3390/bioengineering10121414</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I31" t="inlineStr">
+      <c r="J31" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J31" t="inlineStr">
+      <c r="K31" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K31" t="inlineStr">
+      <c r="L31" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L31" t="inlineStr">
+      <c r="M31" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M31" t="inlineStr">
+      <c r="N31" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N31" t="inlineStr">
+      <c r="O31" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/38136005</t>
         </is>
       </c>
-      <c r="O31" t="inlineStr">
+      <c r="P31" t="inlineStr">
         <is>
           <t>https://doi.org/10.3390/bioengineering10121414</t>
         </is>
       </c>
-      <c r="P31" t="inlineStr">
+      <c r="Q31" t="inlineStr">
         <is>
           <t>article</t>
         </is>

--- a/DOM_Banner/output/dept0713/Marvin J Slepian_2023.xlsx
+++ b/DOM_Banner/output/dept0713/Marvin J Slepian_2023.xlsx
@@ -507,7 +507,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>29</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -594,7 +594,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -708,57 +708,57 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Kaitlyn R. Ammann, Jun Ding, Vladimir Gilman, Scott C. Corbett, Marvin J. Slepian</t>
+          <t>Yana Roka‐Moiia, Kaitlyn R. Ammann, Samuel Miller-Gutierrez, Jawaad Sheriff, Danny Bluestein, Joseph E. Italiano, Robert Flaumenhaft, Marvin J. Slepian</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Department of Medicine University of Arizona  Tucson Arizona USA; ABIOMED Inc.  Danvers Massachusetts USA; ABIOMED Inc.  Danvers Massachusetts USA; ABIOMED Inc.  Danvers Massachusetts USA; Department of Medicine University of Arizona  Tucson Arizona USA</t>
+          <t>Sarver Heart Center, Departments of Medicine and Biomedical Engineering, University of Arizona, 1501 N Campbell Ave, Building 201E, Room 6139, Tucson, AZ 85724, USA; Sarver Heart Center, Departments of Medicine and Biomedical Engineering, University of Arizona, 1501 N Campbell Ave, Building 201E, Room 6139, Tucson, AZ 85724, USA; Sarver Heart Center, Departments of Medicine and Biomedical Engineering, University of Arizona, 1501 N Campbell Ave, Building 201E, Room 6139, Tucson, AZ 85724, USA; Department of Biomedical Engineering, Stony Brook University, Stony Brook, NY 11794, USA; Department of Biomedical Engineering, Stony Brook University, Stony Brook, NY 11794, USA; Boston Children’s Hospital, Harvard Medical School, Boston, MA 02115, USA; Beth Israel Deaconess Medical Center, Boston, MA 02215, USA; Boston Children’s Hospital, Harvard Medical School, Boston, MA 02115, USA; Sarver Heart Center, Departments of Medicine and Biomedical Engineering, University of Arizona, 1501 N Campbell Ave, Building 201E, Room 6139, Tucson, AZ 85724, USA</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4315700374</t>
+          <t>https://openalex.org/W4366088439</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Sodium bicarbonate alters protein stability and blood coagulability in a simulated Impella purge gap model</t>
+          <t>Shear-Mediated Platelet Microparticles Demonstrate Phenotypic Heterogeneity as to Morphology, Receptor Distribution, and Hemostatic Function</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2023-02-09</t>
+          <t>2023-04-17</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Artificial Organs</t>
+          <t>International Journal of Molecular Sciences</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Wiley-Blackwell</t>
+          <t>Multidisciplinary Digital Publishing Institute</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1111/aor.14497</t>
+          <t>https://doi.org/10.3390/ijms24087386</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>gold</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -768,7 +768,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -778,12 +778,12 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/36633107</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37108551</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1111/aor.14497</t>
+          <t>https://doi.org/10.3390/ijms24087386</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
@@ -795,57 +795,57 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Yana Roka‐Moiia, Kaitlyn R. Ammann, Samuel Miller-Gutierrez, Jawaad Sheriff, Danny Bluestein, Joseph E. Italiano, Robert Flaumenhaft, Marvin J. Slepian</t>
+          <t>Kaitlyn R. Ammann, Jun Ding, Vladimir Gilman, Scott C. Corbett, Marvin J. Slepian</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sarver Heart Center, Departments of Medicine and Biomedical Engineering, University of Arizona, 1501 N Campbell Ave, Building 201E, Room 6139, Tucson, AZ 85724, USA; Sarver Heart Center, Departments of Medicine and Biomedical Engineering, University of Arizona, 1501 N Campbell Ave, Building 201E, Room 6139, Tucson, AZ 85724, USA; Sarver Heart Center, Departments of Medicine and Biomedical Engineering, University of Arizona, 1501 N Campbell Ave, Building 201E, Room 6139, Tucson, AZ 85724, USA; Department of Biomedical Engineering, Stony Brook University, Stony Brook, NY 11794, USA; Department of Biomedical Engineering, Stony Brook University, Stony Brook, NY 11794, USA; Boston Children’s Hospital, Harvard Medical School, Boston, MA 02115, USA; Beth Israel Deaconess Medical Center, Boston, MA 02215, USA; Boston Children’s Hospital, Harvard Medical School, Boston, MA 02115, USA; Sarver Heart Center, Departments of Medicine and Biomedical Engineering, University of Arizona, 1501 N Campbell Ave, Building 201E, Room 6139, Tucson, AZ 85724, USA</t>
+          <t>Department of Medicine University of Arizona  Tucson Arizona USA; ABIOMED Inc.  Danvers Massachusetts USA; ABIOMED Inc.  Danvers Massachusetts USA; ABIOMED Inc.  Danvers Massachusetts USA; Department of Medicine University of Arizona  Tucson Arizona USA</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4366088439</t>
+          <t>https://openalex.org/W4315700374</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Shear-Mediated Platelet Microparticles Demonstrate Phenotypic Heterogeneity as to Morphology, Receptor Distribution, and Hemostatic Function</t>
+          <t>Sodium bicarbonate alters protein stability and blood coagulability in a simulated Impella purge gap model</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2023-04-17</t>
+          <t>2023-02-09</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>International Journal of Molecular Sciences</t>
+          <t>Artificial Organs</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Multidisciplinary Digital Publishing Institute</t>
+          <t>Wiley-Blackwell</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3390/ijms24087386</t>
+          <t>https://doi.org/10.1111/aor.14497</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>publishedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>gold</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -865,12 +865,12 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37108551</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/36633107</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3390/ijms24087386</t>
+          <t>https://doi.org/10.1111/aor.14497</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
@@ -969,22 +969,22 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Yana Roka‐Moiia, Kaitlyn R. Ammann, Samuel Miller-Gutierrez, Jawaad Sheriff, Danny Bluestein, Joseph E. Italiano, Robert Flaumenhaft, Marvin J. Slepian</t>
+          <t>Eleonora Puce, Yana Roka‐Moiia, Tatiana Mencarini, Silvia Bozzi, Alberto Redaelli, Marvin J. Slepian</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Department of Medicine and Biomedical Engineering, University of Arizona, Tucson, Arizona, United States; Department of Medicine and Biomedical Engineering, University of Arizona, Tucson, Arizona, United States; Department of Medicine and Biomedical Engineering, University of Arizona, Tucson, Arizona, United States; Department of Biomedical Engineering, Stony Brook University, Stony Brook, New York, United States; Department of Biomedical Engineering, Stony Brook University, Stony Brook, New York, United States; Boston Children’s Hospital, Harvard Medical School, Boston, Massachusetts, United States; Boston Children’s Hospital, Harvard Medical School, Boston, Massachusetts, United States; Department of Medicine and Biomedical Engineering, University of Arizona, Tucson, Arizona, United States</t>
+          <t>Biomedical Engineering, Politechnico di Milano, Milan, Italy; Medicine and Biomedical Engineering, University of Arizona, Tucson, Arizona, United States; Biomedical Engineering, Politechnico di Milano, Milan, Italy; Biomedical Engineering, Politechnico di Milano, Milan, Italy; Biomedical Engineering, Politechnico di Milano, Milan, Italy; Medicine and Biomedical Engineering, University of Arizona, Tucson, Arizona, United States</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4380319547</t>
+          <t>https://openalex.org/W4380368804</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>CARD12: Shear Stress Renders Redistribution of P2Y12 and PAR-1 Receptors from Platelets to Microparticles: A Cue to Limited Effectiveness of Antiplatelet Therapy in MCS</t>
+          <t>P83: Circulating Platelet-Derived Microparticles Modulate Platelet Adhesion Under Flow: Modeling Primary Thrombus Formation in a Microfluidic System</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1004,7 +1004,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1097/01.mat.0000943572.05432.ff</t>
+          <t>https://doi.org/10.1097/01.mat.0000944152.62717.92</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -1044,7 +1044,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1097/01.mat.0000943572.05432.ff</t>
+          <t>https://doi.org/10.1097/01.mat.0000944152.62717.92</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
@@ -1056,22 +1056,22 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Kaitlyn R. Ammann, Chih-Chieh Hsieh, Christine Outridge, Craig A. Aspinwall, Marvin J. Slepian</t>
+          <t>Yana Roka‐Moiia, Kaitlyn R. Ammann, Samuel Miller-Gutierrez, Jawaad Sheriff, Danny Bluestein, Joseph E. Italiano, Robert Flaumenhaft, Marvin J. Slepian</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Medicine, University of Arizona, Tucson, Arizona, United States; Chemistry, University of Arizona, Tucson, Arizona, United States; Medicine, University of Arizona, Tucson, Arizona, United States; Chemistry, University of Arizona, Tucson, Arizona, United States; Medicine, University of Arizona, Tucson, Arizona, United States</t>
+          <t>Department of Medicine and Biomedical Engineering, University of Arizona, Tucson, Arizona, United States; Department of Medicine and Biomedical Engineering, University of Arizona, Tucson, Arizona, United States; Department of Medicine and Biomedical Engineering, University of Arizona, Tucson, Arizona, United States; Department of Biomedical Engineering, Stony Brook University, Stony Brook, New York, United States; Department of Biomedical Engineering, Stony Brook University, Stony Brook, New York, United States; Boston Children’s Hospital, Harvard Medical School, Boston, Massachusetts, United States; Boston Children’s Hospital, Harvard Medical School, Boston, Massachusetts, United States; Department of Medicine and Biomedical Engineering, University of Arizona, Tucson, Arizona, United States</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4380319712</t>
+          <t>https://openalex.org/W4380319547</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>P74: Plasma Osmolarity as a Determinant of Platelet Morphology and Function in Heart Failure</t>
+          <t>CARD12: Shear Stress Renders Redistribution of P2Y12 and PAR-1 Receptors from Platelets to Microparticles: A Cue to Limited Effectiveness of Antiplatelet Therapy in MCS</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1097/01.mat.0000944116.44107.58</t>
+          <t>https://doi.org/10.1097/01.mat.0000943572.05432.ff</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1097/01.mat.0000944116.44107.58</t>
+          <t>https://doi.org/10.1097/01.mat.0000943572.05432.ff</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
@@ -1143,22 +1143,22 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Sara Sheikhlary, Melanie Odenkirk, Christine Outridge, Michael T. Marty, Marvin J. Slepian</t>
+          <t>Kaitlyn R. Ammann, Chih‐Chieh Hsieh, Christine Outridge, Craig A. Aspinwall, Marvin J. Slepian</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Department of Biomedical Engineering, College of Engineering, University of Arizona, Tucson, Arizona; Department of Chemistry and Biochemistry, University of Arizona, Tucson, Arizona; Arizona Center for Accelerated Biomedical Innovation, University of Arizona, Tucson, Arizona; Department of Chemistry and Biochemistry, University of Arizona, Tucson, Arizona; Department of Biomedical Engineering, College of Engineering, University of Arizona, Tucson, Arizona</t>
+          <t>Medicine, University of Arizona, Tucson, Arizona, United States; Chemistry, University of Arizona, Tucson, Arizona, United States; Medicine, University of Arizona, Tucson, Arizona, United States; Chemistry, University of Arizona, Tucson, Arizona, United States; Medicine, University of Arizona, Tucson, Arizona, United States</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4380319716</t>
+          <t>https://openalex.org/W4380319712</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>P82: Platelet Exogenous Lipid Uptake: A Step Toward Lipid Membrane Mechanoceuticals</t>
+          <t>P74: Plasma Osmolarity as a Determinant of Platelet Morphology and Function in Heart Failure</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1178,7 +1178,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1097/01.mat.0000944148.20781.2b</t>
+          <t>https://doi.org/10.1097/01.mat.0000944116.44107.58</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1218,7 +1218,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1097/01.mat.0000944148.20781.2b</t>
+          <t>https://doi.org/10.1097/01.mat.0000944116.44107.58</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
@@ -1230,22 +1230,22 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Kaitlyn R. Ammann, Christine Outridge, Sami Muslmani, Marvin J. Slepian</t>
+          <t>Sara Sheikhlary, Melanie Odenkirk, Christine Outridge, Michael T. Marty, Marvin J. Slepian</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>University of Arizona, Tucson, Arizona, United States; University of Arizona, Tucson, Arizona, United States; University of Arizona, Tucson, Arizona, United States; University of Arizona, Tucson, Arizona, United States</t>
+          <t>Department of Biomedical Engineering, College of Engineering, University of Arizona, Tucson, Arizona; Department of Chemistry and Biochemistry, University of Arizona, Tucson, Arizona; Arizona Center for Accelerated Biomedical Innovation, University of Arizona, Tucson, Arizona; Department of Chemistry and Biochemistry, University of Arizona, Tucson, Arizona; Department of Biomedical Engineering, College of Engineering, University of Arizona, Tucson, Arizona</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4380319754</t>
+          <t>https://openalex.org/W4380319716</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>CARD29: Sodium Bicarbonate as an Adjunctive Local Anti-Thrombotic Agent for Cardiovascular Therapeutic Devices</t>
+          <t>P82: Platelet Exogenous Lipid Uptake: A Step Toward Lipid Membrane Mechanoceuticals</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1265,7 +1265,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1097/01.mat.0000943640.84778.0f</t>
+          <t>https://doi.org/10.1097/01.mat.0000944148.20781.2b</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1097/01.mat.0000943640.84778.0f</t>
+          <t>https://doi.org/10.1097/01.mat.0000944148.20781.2b</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
@@ -1317,22 +1317,22 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Kaitlyn R. Ammann, Jawaad Sheriff, Brandon Kovarovic, Jeffrey Pyun, Danny Bluestein, Marvin J. Slepian</t>
+          <t>Kaitlyn R. Ammann, Christine Outridge, Sami Muslmani, Marvin J. Slepian</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>University of Arizona, Tucson, Arizona, United States; Stony Brook University, Stony Brook, New York, United States; Stony Brook University, Stony Brook, New York, United States; University of Arizona, Tucson, Arizona, United States; Stony Brook University, Stony Brook, New York, United States; University of Arizona, Tucson, Arizona, United States</t>
+          <t>University of Arizona, Tucson, Arizona, United States; University of Arizona, Tucson, Arizona, United States; University of Arizona, Tucson, Arizona, United States; University of Arizona, Tucson, Arizona, United States</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4380319825</t>
+          <t>https://openalex.org/W4380319754</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>CARD11: Polymeric Endoluminal Paving for Prevention of Paravalvular Leak in Transcatheter Aortic Valve Replacement</t>
+          <t>CARD29: Sodium Bicarbonate as an Adjunctive Local Anti-Thrombotic Agent for Cardiovascular Therapeutic Devices</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1352,7 +1352,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1097/01.mat.0000943568.04436.a2</t>
+          <t>https://doi.org/10.1097/01.mat.0000943640.84778.0f</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1392,7 +1392,7 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1097/01.mat.0000943568.04436.a2</t>
+          <t>https://doi.org/10.1097/01.mat.0000943640.84778.0f</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
@@ -1404,22 +1404,22 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Daniel E. Palomares, Pierre Deymier, Moe Momayez, Jawaad Sheriff, Danny Bluestein, Marvin J. Slepian</t>
+          <t>Kaitlyn R. Ammann, Jawaad Sheriff, Brandon Kovarovic, Jeffrey Pyun, Danny Bluestein, Marvin J. Slepian</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Biomedical Engineering, University of Arizona, Tucson, Arizona, United States; Material Science and Engineering, University of Arizona, Tucson, Arizona, United States; Mining and Geological Engineering, University of Arizona, Tucson, Arizona, United States; Biomedical Engineering, Stony Brook University, Stony Brook, New York, United States; Biomedical Engineering, Stony Brook University, Stony Brook, New York, United States; Biomedical Engineering, University of Arizona, Tucson, Arizona, United States</t>
+          <t>University of Arizona, Tucson, Arizona, United States; Stony Brook University, Stony Brook, New York, United States; Stony Brook University, Stony Brook, New York, United States; University of Arizona, Tucson, Arizona, United States; Stony Brook University, Stony Brook, New York, United States; University of Arizona, Tucson, Arizona, United States</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4380319912</t>
+          <t>https://openalex.org/W4380319825</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>P29: Snore Vibro-acoustic Platelet Activation: A Thrombotic Risk Factor in Obstructive Sleep Apnea</t>
+          <t>CARD11: Polymeric Endoluminal Paving for Prevention of Paravalvular Leak in Transcatheter Aortic Valve Replacement</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1439,7 +1439,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1097/01.mat.0000943940.96228.c0</t>
+          <t>https://doi.org/10.1097/01.mat.0000943568.04436.a2</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1097/01.mat.0000943940.96228.c0</t>
+          <t>https://doi.org/10.1097/01.mat.0000943568.04436.a2</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
@@ -1491,22 +1491,22 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Sage I. Nye, Nicola Rizzo, William H. Rankin, Halle R. Moore, Michael Hart, Marvin J. Slepian</t>
+          <t>Daniel E. Palomares, Pierre Deymier, Moe Momayez, Jawaad Sheriff, Danny Bluestein, Marvin J. Slepian</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>College of Medicine, University of Arizona, Tucson, Arizona, United States; College of Medicine, University of Arizona, Tucson, Arizona, United States; College of Medicine, University of Arizona, Tucson, Arizona, United States; College of Medicine, University of Arizona, Tucson, Arizona, United States; BME, University of Arizona, Tucson, Arizona, United States; BME, University of Arizona, Tucson, Arizona, United States</t>
+          <t>Biomedical Engineering, University of Arizona, Tucson, Arizona, United States; Material Science and Engineering, University of Arizona, Tucson, Arizona, United States; Mining and Geological Engineering, University of Arizona, Tucson, Arizona, United States; Biomedical Engineering, Stony Brook University, Stony Brook, New York, United States; Biomedical Engineering, Stony Brook University, Stony Brook, New York, United States; Biomedical Engineering, University of Arizona, Tucson, Arizona, United States</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4380319969</t>
+          <t>https://openalex.org/W4380319912</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>P28: Analysis of Surface Electromyography (sEMG) Signals for Motion Signatures in Strength Training Exercises via Stretchable Wearable Electronic Sensors</t>
+          <t>P29: Snore Vibro-acoustic Platelet Activation: A Thrombotic Risk Factor in Obstructive Sleep Apnea</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1526,7 +1526,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1097/01.mat.0000943936.75907.d7</t>
+          <t>https://doi.org/10.1097/01.mat.0000943940.96228.c0</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1566,7 +1566,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1097/01.mat.0000943936.75907.d7</t>
+          <t>https://doi.org/10.1097/01.mat.0000943940.96228.c0</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
@@ -1578,22 +1578,22 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Katelyn Rohrer, G Pierre, Jordan Rodriguez, Camila Grubb, Luis De Anda, Zachary Hansen, Sara Sheikhlary, Omar Salah, Mehrail Lawendy, Farah Alqaraghuli, Chris Hedgecoke, Youssif Abdelkeder, Marvin J. Slepian</t>
+          <t>Sage I. Nye, Nicola Rizzo, William H. Rankin, Halle R. Moore, Michael Hart, Marvin J. Slepian</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>College of Science, University of Arizona, Tucson, Arizona, United States; College of Engineering, University of Arizona, Tucson, Arizona, United States; College of Science, University of Arizona, Tucson, Arizona, United States; College of Science, University of Arizona, Tucson, Arizona, United States; College of Science, University of Arizona, Tucson, Arizona, United States; College of Science, University of Arizona, Tucson, Arizona, United States; College of Engineering, University of Arizona, Tucson, Arizona, United States; College of Engineering, University of Arizona, Tucson, Arizona, United States; College of Engineering, University of Arizona, Tucson, Arizona, United States; College of Engineering, University of Arizona, Tucson, Arizona, United States; College of Engineering, University of Arizona, Tucson, Arizona, United States; College of Engineering, University of Arizona, Tucson, Arizona, United States; College of Engineering, University of Arizona, Tucson, Arizona, United States</t>
+          <t>College of Medicine, University of Arizona, Tucson, Arizona, United States; College of Medicine, University of Arizona, Tucson, Arizona, United States; College of Medicine, University of Arizona, Tucson, Arizona, United States; College of Medicine, University of Arizona, Tucson, Arizona, United States; BME, University of Arizona, Tucson, Arizona, United States; BME, University of Arizona, Tucson, Arizona, United States</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4380320011</t>
+          <t>https://openalex.org/W4380319969</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>RENAL13: Python Computational Methods Advance Video Motion Capture for Telehealth and In-Person Diagnostic Accuracy</t>
+          <t>P28: Analysis of Surface Electromyography (sEMG) Signals for Motion Signatures in Strength Training Exercises via Stretchable Wearable Electronic Sensors</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1613,7 +1613,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1097/01.mat.0000943820.86838.6d</t>
+          <t>https://doi.org/10.1097/01.mat.0000943936.75907.d7</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1653,7 +1653,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1097/01.mat.0000943820.86838.6d</t>
+          <t>https://doi.org/10.1097/01.mat.0000943936.75907.d7</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
@@ -1665,22 +1665,22 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Marvin J. Slepian, Ara Arabyan, Frank C. Brosius, Jason A. Wertheim</t>
+          <t>Katelyn Rohrer, G Pierre, Jordan Rodriguez, Camila Grubb, Luis De Anda, Zachary Hansen, Sara Sheikhlary, Omar Salah, Mehrail Lawendy, Farah Alqaraghuli, Chris Hedgecoke, Youssif Abdelkeder, Marvin J. Slepian</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Medicne and Biomedical Engineering, University of Arizona, Tucson, Arizona, United States; Engineering, University of Arizona, Tucson, Arizona, United States; Medicine- Nephrology, University of Arizona, Tucson, Arizona, United States; Medicine and Biomedical Engieering, University of Arizona, Tucson, Arizona, United States</t>
+          <t>College of Science, University of Arizona, Tucson, Arizona, United States; College of Engineering, University of Arizona, Tucson, Arizona, United States; College of Science, University of Arizona, Tucson, Arizona, United States; College of Science, University of Arizona, Tucson, Arizona, United States; College of Science, University of Arizona, Tucson, Arizona, United States; College of Science, University of Arizona, Tucson, Arizona, United States; College of Engineering, University of Arizona, Tucson, Arizona, United States; College of Engineering, University of Arizona, Tucson, Arizona, United States; College of Engineering, University of Arizona, Tucson, Arizona, United States; College of Engineering, University of Arizona, Tucson, Arizona, United States; College of Engineering, University of Arizona, Tucson, Arizona, United States; College of Engineering, University of Arizona, Tucson, Arizona, United States; College of Engineering, University of Arizona, Tucson, Arizona, United States</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4380320018</t>
+          <t>https://openalex.org/W4380320011</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>RENAL5: ADVANCE Kidney Health: Student, Faculty and University Engagement to Advance the Renal Workforce and Drive Innovation for the Future</t>
+          <t>RENAL13: Python Computational Methods Advance Video Motion Capture for Telehealth and In-Person Diagnostic Accuracy</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1700,7 +1700,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1097/01.mat.0000943788.42871.f6</t>
+          <t>https://doi.org/10.1097/01.mat.0000943820.86838.6d</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1740,7 +1740,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1097/01.mat.0000943788.42871.f6</t>
+          <t>https://doi.org/10.1097/01.mat.0000943820.86838.6d</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
@@ -1752,22 +1752,22 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Christopher J. Hedgecoke, Cameron Matsumoto, Christian N. Enevoldsen, Jun Niu, Abby Prescott, Marvin J. Slepian</t>
+          <t>Marvin J. Slepian, Ara Arabyan, Frank C. Brosius, Jason A. Wertheim</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Biomedical Engineering, University of Arizona, Phoenix, Arizona, United States; Electrical and Computer Engineering, University of Arizona, Tucson, Arizona, United States; Biomedical Engineering, University of Arizona, Phoenix, Arizona, United States; Electrical and Computer Engineering, University of Arizona, Tucson, Arizona, United States; Biomedical Engineering, University of Arizona, Phoenix, Arizona, United States; Biomedical Engineering, University of Arizona, Phoenix, Arizona, United States</t>
+          <t>Medicne and Biomedical Engineering, University of Arizona, Tucson, Arizona, United States; Engineering, University of Arizona, Tucson, Arizona, United States; Medicine- Nephrology, University of Arizona, Tucson, Arizona, United States; Medicine and Biomedical Engieering, University of Arizona, Tucson, Arizona, United States</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4380320073</t>
+          <t>https://openalex.org/W4380320018</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>RENAL14: Colorimetric Detection App as a Component of a Blood-Free Test Kit for Home Detection of Inflammation Markers</t>
+          <t>RENAL5: ADVANCE Kidney Health: Student, Faculty and University Engagement to Advance the Renal Workforce and Drive Innovation for the Future</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1787,7 +1787,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1097/01.mat.0000943824.87668.d1</t>
+          <t>https://doi.org/10.1097/01.mat.0000943788.42871.f6</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1827,7 +1827,7 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1097/01.mat.0000943824.87668.d1</t>
+          <t>https://doi.org/10.1097/01.mat.0000943788.42871.f6</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
@@ -1839,22 +1839,22 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Hailey L. Patterson, Karli G. Ramsey, Rebecca C. Slepian, Binh Thang Tran, Evilina Kadimova, Shannon Yee, K Rohrer, Mehrail Lawendy, Ka-Chun Siu, Marvin J. Slepian</t>
+          <t>Christopher J. Hedgecoke, Cameron Matsumoto, Christian N. Enevoldsen, Jun Niu, Abby Prescott, Marvin J. Slepian</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Department of Physiology, College of Medicine, University of Arizona, Tucson, Arizona, United States; Department of Physiology, College of Medicine, University of Arizona, Tucson, Arizona, United States; Department of Physiology, College of Medicine, University of Arizona, Tucson, Arizona, United States; Department of Medicine, Sarver Heart Center, Univeristy of Arizona, Tucson, Arizona, United States; Department of Physiology, College of Medicine, University of Arizona, Tucson, Arizona, United States; Department of Physiology, College of Medicine, University of Arizona, Tucson, Arizona, United States; Department of Biomedical Engineering, College of Engineering, University of Arizona, Tucson, Arizona, United States; Department of Physiology, College of Medicine, University of Arizona, Tucson, Arizona, United States; University of Nebraska Medical Center, Omaha, Nebraska, United States; Department of Medicine, Sarver Heart Center, Univeristy of Arizona, Tucson, Arizona, United States</t>
+          <t>Biomedical Engineering, University of Arizona, Phoenix, Arizona, United States; Electrical and Computer Engineering, University of Arizona, Tucson, Arizona, United States; Biomedical Engineering, University of Arizona, Phoenix, Arizona, United States; Electrical and Computer Engineering, University of Arizona, Tucson, Arizona, United States; Biomedical Engineering, University of Arizona, Phoenix, Arizona, United States; Biomedical Engineering, University of Arizona, Phoenix, Arizona, United States</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4380320134</t>
+          <t>https://openalex.org/W4380320073</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>P30: Remote and In-Clinic Teletracking and Analysis for Enhanced Rheumatologic Examination</t>
+          <t>RENAL14: Colorimetric Detection App as a Component of a Blood-Free Test Kit for Home Detection of Inflammation Markers</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1874,7 +1874,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1097/01.mat.0000943944.66548.ac</t>
+          <t>https://doi.org/10.1097/01.mat.0000943824.87668.d1</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1914,7 +1914,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1097/01.mat.0000943944.66548.ac</t>
+          <t>https://doi.org/10.1097/01.mat.0000943824.87668.d1</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
@@ -1926,22 +1926,22 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Benjamin Albright, Youssif Abdelkeder, S. Ippolito, Michael Lauria, Michael Hart, Katelyn Rohrer, Greyson A. St Pierre, Izzy Beeley, Sara Sheikhlary, Omar Salah, Mehrail Lawendy, Farah Alqaraghuli, Chris Hedgecoke, Camila Grubb, Luis De Anda, Dihan Almamun, Marvin J. Slepian</t>
+          <t>Hailey L. Patterson, Karli G. Ramsey, Rebecca C. Slepian, Binh Thang Tran, Evilina Kadimova, Shannon Yee, K Rohrer, Mehrail Lawendy, Ka-Chun Siu, Marvin J. Slepian</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Biomedical Engineering, Univeristy of Arizona, Tucson, Arizona, United States; Biomedical Engineering, Univeristy of Arizona, Tucson, Arizona, United States; Optical Engineering, University of Arizona, Tucson, Arizona, United States; Electrical Engineering, University of Arizona, Tucson, Arizona, United States; Electrical Engineering, University of Arizona, Tucson, Arizona, United States; Computer Science, University of Arizona, Tucson, Arizona, United States; Chemical Engineering, University of Arizona, Tucson, Arizona, United States; Biomedical Engineering, Univeristy of Arizona, Tucson, Arizona, United States; Biomedical Engineering, Univeristy of Arizona, Tucson, Arizona, United States; Biomedical Engineering, Univeristy of Arizona, Tucson, Arizona, United States; Biomedical Engineering, Univeristy of Arizona, Tucson, Arizona, United States; Biomedical Engineering, Univeristy of Arizona, Tucson, Arizona, United States; Biomedical Engineering, Univeristy of Arizona, Tucson, Arizona, United States; Computer Science, University of Arizona, Tucson, Arizona, United States; Computer Science, University of Arizona, Tucson, Arizona, United States; Computer Science, University of Arizona, Tucson, Arizona, United States; Sarver Heart Center, Tucson, Arizona, United States</t>
+          <t>Department of Physiology, College of Medicine, University of Arizona, Tucson, Arizona, United States; Department of Physiology, College of Medicine, University of Arizona, Tucson, Arizona, United States; Department of Physiology, College of Medicine, University of Arizona, Tucson, Arizona, United States; Department of Medicine, Sarver Heart Center, Univeristy of Arizona, Tucson, Arizona, United States; Department of Physiology, College of Medicine, University of Arizona, Tucson, Arizona, United States; Department of Physiology, College of Medicine, University of Arizona, Tucson, Arizona, United States; Department of Biomedical Engineering, College of Engineering, University of Arizona, Tucson, Arizona, United States; Department of Physiology, College of Medicine, University of Arizona, Tucson, Arizona, United States; University of Nebraska Medical Center, Omaha, Nebraska, United States; Department of Medicine, Sarver Heart Center, Univeristy of Arizona, Tucson, Arizona, United States</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4380320135</t>
+          <t>https://openalex.org/W4380320134</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>RENAL2: Wired Room: Digital Sound, Image and Motion Analysis for Enhanced Medical Diagnostics from A Patient Encounter</t>
+          <t>P30: Remote and In-Clinic Teletracking and Analysis for Enhanced Rheumatologic Examination</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1961,7 +1961,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1097/01.mat.0000943776.84758.a0</t>
+          <t>https://doi.org/10.1097/01.mat.0000943944.66548.ac</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -2001,7 +2001,7 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1097/01.mat.0000943776.84758.a0</t>
+          <t>https://doi.org/10.1097/01.mat.0000943944.66548.ac</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
@@ -2013,22 +2013,22 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Alisia Cornelia Tumac, Bijin Thajudeen, Marvin J. Slepian</t>
+          <t>Benjamin Albright, Youssif Abdelkeder, S. Ippolito, Michael Lauria, Michael Hart, Katelyn Rohrer, Greyson A. St Pierre, Izzy Beeley, Sara Sheikhlary, Omar Salah, Mehrail Lawendy, Farah Alqaraghuli, Chris Hedgecoke, Camila Grubb, Luis De Anda, Dihan Almamun, Marvin J. Slepian</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Nephrology, Banner University of Arizona, TUCSON, Arizona, United States; Nephrology, Banner University of Arizona, Tucson, Arizona, United States; Cardiology, Banner University of Arizona, TUCSON, Arizona, United States</t>
+          <t>Biomedical Engineering, Univeristy of Arizona, Tucson, Arizona, United States; Biomedical Engineering, Univeristy of Arizona, Tucson, Arizona, United States; Optical Engineering, University of Arizona, Tucson, Arizona, United States; Electrical Engineering, University of Arizona, Tucson, Arizona, United States; Electrical Engineering, University of Arizona, Tucson, Arizona, United States; Computer Science, University of Arizona, Tucson, Arizona, United States; Chemical Engineering, University of Arizona, Tucson, Arizona, United States; Biomedical Engineering, Univeristy of Arizona, Tucson, Arizona, United States; Biomedical Engineering, Univeristy of Arizona, Tucson, Arizona, United States; Biomedical Engineering, Univeristy of Arizona, Tucson, Arizona, United States; Biomedical Engineering, Univeristy of Arizona, Tucson, Arizona, United States; Biomedical Engineering, Univeristy of Arizona, Tucson, Arizona, United States; Biomedical Engineering, Univeristy of Arizona, Tucson, Arizona, United States; Computer Science, University of Arizona, Tucson, Arizona, United States; Computer Science, University of Arizona, Tucson, Arizona, United States; Computer Science, University of Arizona, Tucson, Arizona, United States; Sarver Heart Center, Tucson, Arizona, United States</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4380320155</t>
+          <t>https://openalex.org/W4380320135</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>RENAL7: Unmet Needs In Nephrology: Survey Results to Drive Innovation</t>
+          <t>RENAL2: Wired Room: Digital Sound, Image and Motion Analysis for Enhanced Medical Diagnostics from A Patient Encounter</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -2048,7 +2048,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1097/01.mat.0000943796.93114.88</t>
+          <t>https://doi.org/10.1097/01.mat.0000943776.84758.a0</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -2088,7 +2088,7 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1097/01.mat.0000943796.93114.88</t>
+          <t>https://doi.org/10.1097/01.mat.0000943776.84758.a0</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
@@ -2100,22 +2100,22 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Marvin J. Slepian, Brandon Kovarovic, Oren M. Rotman, Kyle Baylous, Danny Bluestein</t>
+          <t>Alisia Cornelia Tumac, Bijin Thajudeen, Marvin J. Slepian</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Medicne and Biomedical Engineering, University of Arizona, Tucson, Arizona, United States; BME, StonyBrook University, Stonybrook, New York, United States; BME, StonyBrook University, Stonybrook, New York, United States; BME, StonyBrook University, Stonybrook, New York, United States; BME, StonyBrook University, Stonybrook, New York, United States</t>
+          <t>Nephrology, Banner University of Arizona, TUCSON, Arizona, United States; Nephrology, Banner University of Arizona, Tucson, Arizona, United States; Cardiology, Banner University of Arizona, TUCSON, Arizona, United States</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4380320223</t>
+          <t>https://openalex.org/W4380320155</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>BIO3: Advancement of a Novel Polymeric Transcatheter Aortic Valve as an Alternative to Tissue-based Valves</t>
+          <t>RENAL7: Unmet Needs In Nephrology: Survey Results to Drive Innovation</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -2135,7 +2135,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1097/01.mat.0000943324.32217.a6</t>
+          <t>https://doi.org/10.1097/01.mat.0000943796.93114.88</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -2175,7 +2175,7 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1097/01.mat.0000943324.32217.a6</t>
+          <t>https://doi.org/10.1097/01.mat.0000943796.93114.88</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
@@ -2187,22 +2187,22 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Karli G. Ramsey, H. Patterson, Michael Hart, Kaitlyn R. Ammann, Marvin J. Slepian</t>
+          <t>Marvin J. Slepian, Brandon Kovarovic, Oren M. Rotman, Kyle Baylous, Danny Bluestein</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>University of Arizona, Tucson, Arizona, United States; University of Arizona, Tucson, Arizona, United States; University of Arizona, Tucson, Arizona, United States; University of Arizona, Tucson, Arizona, United States; University of Arizona, Tucson, Arizona, United States</t>
+          <t>Medicne and Biomedical Engineering, University of Arizona, Tucson, Arizona, United States; BME, StonyBrook University, Stonybrook, New York, United States; BME, StonyBrook University, Stonybrook, New York, United States; BME, StonyBrook University, Stonybrook, New York, United States; BME, StonyBrook University, Stonybrook, New York, United States</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4380320261</t>
+          <t>https://openalex.org/W4380320223</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>P33: “Digital Dance”: Analyzing and Quantifying Signatures of a Demi Plié via Stretchable Electronic Wearable Sensors for Dance Movement Therapy</t>
+          <t>BIO3: Advancement of a Novel Polymeric Transcatheter Aortic Valve as an Alternative to Tissue-based Valves</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -2222,7 +2222,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1097/01.mat.0000943956.41982.f9</t>
+          <t>https://doi.org/10.1097/01.mat.0000943324.32217.a6</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -2262,7 +2262,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1097/01.mat.0000943956.41982.f9</t>
+          <t>https://doi.org/10.1097/01.mat.0000943324.32217.a6</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
@@ -2274,22 +2274,22 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Rebecca C. Slepian, H.B.W. Patterson, Ashley Chey Vincent, Marvin J. Slepian</t>
+          <t>Karli G. Ramsey, H. Patterson, Michael Hart, Kaitlyn R. Ammann, Marvin J. Slepian</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>University of Arizona, Tucson, Arizona, United States; University of Arizona, Tucson, Arizona, United States; University of Arizona, Tucson, Arizona, United States; University of Arizona, Tucson, Arizona, United States</t>
+          <t>University of Arizona, Tucson, Arizona, United States; University of Arizona, Tucson, Arizona, United States; University of Arizona, Tucson, Arizona, United States; University of Arizona, Tucson, Arizona, United States; University of Arizona, Tucson, Arizona, United States</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4380320279</t>
+          <t>https://openalex.org/W4380320261</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>P39: Generational Status as a Factor in Medical Device Information and Data Exchange</t>
+          <t>P33: “Digital Dance”: Analyzing and Quantifying Signatures of a Demi Plié via Stretchable Electronic Wearable Sensors for Dance Movement Therapy</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -2309,7 +2309,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1097/01.mat.0000943980.82438.2c</t>
+          <t>https://doi.org/10.1097/01.mat.0000943956.41982.f9</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -2349,7 +2349,7 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1097/01.mat.0000943980.82438.2c</t>
+          <t>https://doi.org/10.1097/01.mat.0000943956.41982.f9</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
@@ -2361,22 +2361,22 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Emma K. Mason, William McKay, Haley Alden, Andrew Nelson, Levi Kerns, Marvin J. Slepian</t>
+          <t>Rebecca C. Slepian, H.B.W. Patterson, Ashley Chey Vincent, Marvin J. Slepian</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Department of Biomedical Engineering, University of Arizona, Tucson, Arizona, United States; Department of Biomedical Engineering, University of Arizona, Tucson, Arizona, United States; Department of Electrical and Computer Engineering, University of Arizona, Tucson, Arizona, United States; Department of Mechanical Engineering, University of Arizona, Tucson, Arizona, United States; Department of Systems Engineering, University of Arizona, Tucson, Arizona, United States; Department of Medicine and Biomedical Engineering, University of Arizona, Tucson, Arizona, United States</t>
+          <t>University of Arizona, Tucson, Arizona, United States; University of Arizona, Tucson, Arizona, United States; University of Arizona, Tucson, Arizona, United States; University of Arizona, Tucson, Arizona, United States</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4380320284</t>
+          <t>https://openalex.org/W4380320279</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>RENAL9: REDIEM 2.0: Renal Extremity Device to Measure Impedance, Edema, Movement</t>
+          <t>P39: Generational Status as a Factor in Medical Device Information and Data Exchange</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -2396,7 +2396,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1097/01.mat.0000943804.30387.09</t>
+          <t>https://doi.org/10.1097/01.mat.0000943980.82438.2c</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2436,7 +2436,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1097/01.mat.0000943804.30387.09</t>
+          <t>https://doi.org/10.1097/01.mat.0000943980.82438.2c</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
@@ -2448,22 +2448,22 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Erica E. Tassone, Marvin J. Slepian</t>
+          <t>Emma K. Mason, William McKay, Haley Alden, Andrew Nelson, Levi Kerns, Marvin J. Slepian</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t xml:space="preserve">; </t>
+          <t>Department of Biomedical Engineering, University of Arizona, Tucson, Arizona, United States; Department of Biomedical Engineering, University of Arizona, Tucson, Arizona, United States; Department of Electrical and Computer Engineering, University of Arizona, Tucson, Arizona, United States; Department of Mechanical Engineering, University of Arizona, Tucson, Arizona, United States; Department of Systems Engineering, University of Arizona, Tucson, Arizona, United States; Department of Medicine and Biomedical Engineering, University of Arizona, Tucson, Arizona, United States</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4380367737</t>
+          <t>https://openalex.org/W4380320284</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>P38: Dual Field Pulsed Electromagnetic Therapy: A Non-Opioid Means of Reducing Pain in Diabetic Peripheral Neuropathy - Report of the RELIEF Trial</t>
+          <t>RENAL9: REDIEM 2.0: Renal Extremity Device to Measure Impedance, Edema, Movement</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -2483,7 +2483,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1097/01.mat.0000943976.11289.02</t>
+          <t>https://doi.org/10.1097/01.mat.0000943804.30387.09</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2523,7 +2523,7 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1097/01.mat.0000943976.11289.02</t>
+          <t>https://doi.org/10.1097/01.mat.0000943804.30387.09</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
@@ -2535,22 +2535,22 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Eleonora Puce, Yana Roka‐Moiia, Tatiana Mencarini, Silvia Bozzi, Alberto Redaelli, Marvin J. Slepian</t>
+          <t>Erica E. Tassone, Marvin J. Slepian</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Biomedical Engineering, Politechnico di Milano, Milan, Italy; Medicine and Biomedical Engineering, University of Arizona, Tucson, Arizona, United States; Biomedical Engineering, Politechnico di Milano, Milan, Italy; Biomedical Engineering, Politechnico di Milano, Milan, Italy; Biomedical Engineering, Politechnico di Milano, Milan, Italy; Medicine and Biomedical Engineering, University of Arizona, Tucson, Arizona, United States</t>
+          <t xml:space="preserve">; </t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4380368804</t>
+          <t>https://openalex.org/W4380367737</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>P83: Circulating Platelet-Derived Microparticles Modulate Platelet Adhesion Under Flow: Modeling Primary Thrombus Formation in a Microfluidic System</t>
+          <t>P38: Dual Field Pulsed Electromagnetic Therapy: A Non-Opioid Means of Reducing Pain in Diabetic Peripheral Neuropathy - Report of the RELIEF Trial</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -2570,7 +2570,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1097/01.mat.0000944152.62717.92</t>
+          <t>https://doi.org/10.1097/01.mat.0000943976.11289.02</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2610,7 +2610,7 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1097/01.mat.0000944152.62717.92</t>
+          <t>https://doi.org/10.1097/01.mat.0000943976.11289.02</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
